--- a/data/trans_bre/P5_2-Urba-trans_bre.xlsx
+++ b/data/trans_bre/P5_2-Urba-trans_bre.xlsx
@@ -497,7 +497,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -581,22 +581,22 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-2,66</t>
+          <t>-1,21</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-3,75</t>
+          <t>-2,89</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-20,51%</t>
+          <t>-9,1%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-24,96%</t>
+          <t>-18,7%</t>
         </is>
       </c>
     </row>
@@ -609,22 +609,22 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-7,84; 2,49</t>
+          <t>-8,17; 5,18</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-10,14; 2,41</t>
+          <t>-9,99; 4,87</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-49,87; 25,2</t>
+          <t>-48,35; 55,68</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-52,85; 23,17</t>
+          <t>-51,1; 43,39</t>
         </is>
       </c>
     </row>
@@ -641,22 +641,22 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-8,44</t>
+          <t>-13,85</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-11,45</t>
+          <t>-14,17</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-38,25%</t>
+          <t>-50,83%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-46,3%</t>
+          <t>-51,53%</t>
         </is>
       </c>
     </row>
@@ -669,22 +669,22 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-15,35; -1,88</t>
+          <t>-23,03; -4,65</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-22,83; -4,27</t>
+          <t>-23,2; -4,32</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-58,61; -9,16</t>
+          <t>-69,32; -19,81</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-68,14; -20,98</t>
+          <t>-70,83; -19,2</t>
         </is>
       </c>
     </row>
@@ -701,22 +701,22 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-2,21</t>
+          <t>-1,58</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-2,09</t>
+          <t>-1,67</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-9,77%</t>
+          <t>-9,32%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-9,09%</t>
+          <t>-10,05%</t>
         </is>
       </c>
     </row>
@@ -729,22 +729,22 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-18,08; 12,71</t>
+          <t>-21,67; 18,59</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-17,05; 14,05</t>
+          <t>-21,1; 17,98</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-58,09; 84,12</t>
+          <t>-76,99; 329,76</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-55,07; 92,18</t>
+          <t>-76,28; 375,62</t>
         </is>
       </c>
     </row>
@@ -761,22 +761,22 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-5,12</t>
+          <t>-6,41</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-6,84</t>
+          <t>-7,33</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-28,84%</t>
+          <t>-33,15%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-34,45%</t>
+          <t>-35,87%</t>
         </is>
       </c>
     </row>
@@ -789,22 +789,29 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-9,19; -1,1</t>
+          <t>-12,11; -1,19</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-12,36; -2,43</t>
+          <t>-12,98; -1,94</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-45,01; -6,07</t>
+          <t>-53,45; -6,3</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-52,47; -13,16</t>
+          <t>-53,66; -11,55</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P5_2-Urba-trans_bre.xlsx
+++ b/data/trans_bre/P5_2-Urba-trans_bre.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -118,7 +121,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -131,6 +134,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -497,7 +506,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -579,179 +588,127 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>-1,21</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>-2,89</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>-9,1%</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>-18,7%</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>-1.208527278642735</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>-2.559437287249408</v>
+      </c>
+      <c r="E4" s="6" t="n">
+        <v>-0.09102209347034118</v>
+      </c>
+      <c r="F4" s="6" t="n">
+        <v>-0.1569307082185707</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>-8,17; 5,18</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>-9,99; 4,87</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>-48,35; 55,68</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>-51,1; 43,39</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>-8.169796899047654</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-11.1426448249336</v>
+      </c>
+      <c r="E5" s="6" t="n">
+        <v>-0.4834972702347115</v>
+      </c>
+      <c r="F5" s="6" t="n">
+        <v>-0.5110772153884277</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>5.177811806879704</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>5.638370647556069</v>
+      </c>
+      <c r="E6" s="6" t="n">
+        <v>0.5568470236759187</v>
+      </c>
+      <c r="F6" s="6" t="n">
+        <v>0.507109670444612</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>Intermedio</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>-13,85</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>-14,17</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>-50,83%</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>-51,53%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>-23,03; -4,65</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>-23,2; -4,32</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>-69,32; -19,81</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>-70,83; -19,2</t>
-        </is>
+      <c r="C7" s="5" t="n">
+        <v>-13.84722636676445</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>-13.51832351054134</v>
+      </c>
+      <c r="E7" s="6" t="n">
+        <v>-0.5083235347709536</v>
+      </c>
+      <c r="F7" s="6" t="n">
+        <v>-0.5101856083694514</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Rural</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>-1,58</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>-1,67</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>-9,32%</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>-10,05%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>-23.03039573058397</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>-23.2236112994053</v>
+      </c>
+      <c r="E8" s="6" t="n">
+        <v>-0.6931841748364882</v>
+      </c>
+      <c r="F8" s="6" t="n">
+        <v>-0.6988374396778025</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>-21,67; 18,59</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>-21,1; 17,98</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>-76,99; 329,76</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>-76,28; 375,62</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>-4.649467874958402</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>-4.247676046774265</v>
+      </c>
+      <c r="E9" s="6" t="n">
+        <v>-0.1980976695278852</v>
+      </c>
+      <c r="F9" s="6" t="n">
+        <v>-0.172570312563098</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>Rural</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -759,57 +716,125 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>-6,41</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>-7,33</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>-33,15%</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>-35,87%</t>
-        </is>
+      <c r="C10" s="5" t="n">
+        <v>-1.578192525859709</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>-0.0564250359834817</v>
+      </c>
+      <c r="E10" s="6" t="n">
+        <v>-0.0932016975444365</v>
+      </c>
+      <c r="F10" s="6" t="n">
+        <v>-0.003566255418790522</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>-12,11; -1,19</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>-12,98; -1,94</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>-53,45; -6,3</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>-53,66; -11,55</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>-21.66648774385211</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-18.79892656012041</v>
+      </c>
+      <c r="E11" s="6" t="n">
+        <v>-0.7699184986556737</v>
+      </c>
+      <c r="F11" s="6" t="n">
+        <v>-0.7396647372681511</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>18.59180480299168</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>19.71050711779623</v>
+      </c>
+      <c r="E12" s="6" t="n">
+        <v>3.297607401304255</v>
+      </c>
+      <c r="F12" s="6" t="n">
+        <v>4.219882328226917</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C13" s="5" t="n">
+        <v>-6.405572971338048</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>-6.87918496474181</v>
+      </c>
+      <c r="E13" s="6" t="n">
+        <v>-0.3315265366729996</v>
+      </c>
+      <c r="F13" s="6" t="n">
+        <v>-0.3351828279199141</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>-12.10577173717635</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>-13.01740801807667</v>
+      </c>
+      <c r="E14" s="6" t="n">
+        <v>-0.5344612655673151</v>
+      </c>
+      <c r="F14" s="6" t="n">
+        <v>-0.5349805652109354</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>-1.186006603795377</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>-1.320074172552444</v>
+      </c>
+      <c r="E15" s="6" t="n">
+        <v>-0.06299789808106061</v>
+      </c>
+      <c r="F15" s="6" t="n">
+        <v>-0.06870566913581307</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
@@ -817,13 +842,13 @@
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
     <mergeCell ref="C1:D1"/>
-    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A10:A12"/>
     <mergeCell ref="E1:F1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
